--- a/Docs/project/Agenda.xlsx
+++ b/Docs/project/Agenda.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sulon\PI\PI-CDS-2020-1\documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sulon\PI\PI-CDS-2020-1\Docs\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69836D40-DCE5-491C-AE98-2228AF5BD86D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580D0067-B49C-43D9-956E-6C9284ABC690}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6D12425F-09C6-4317-83CE-8F94B167B6DE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -111,9 +111,6 @@
     <t xml:space="preserve">05-05: se socializa la contextualización del problema, se proponen cambios, se comparte el vinculo al git (https://github.com/SusanaLondono/PI-CDS-2020-1), se agregan plantillas propuestas por el repositorio de TDSP </t>
   </si>
   <si>
-    <t xml:space="preserve">05-05: se comienza a hacer la busqueda de datos relacionados con el problema, queda pendiente buscar datasets de variables socioeconomicas de hogares del valle de aburrá con datos posteriores al 2017 (inclusivo), preferiblemente en formatos de texto plano (CSV o TXT). Susana queda encargada de los datasets del DANE, los demás de datasets de otras fuentes, Diego J queda encargado de generar formato de catalogo de datos, Catalina queda encargada de indagar sobre asesoria con docentes. </t>
-  </si>
-  <si>
     <t>Responsabilidades</t>
   </si>
   <si>
@@ -157,6 +154,18 @@
   </si>
   <si>
     <t>Formato de catálogo</t>
+  </si>
+  <si>
+    <t>Entender datos DANE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05-05: se comienza a hacer la busqueda de datos relacionados con el problema, queda pendiente buscar datasets de variables socioeconomicas de hogares del valle de aburrá con datos posteriores al 2017 (inclusivo), preferiblemente en formatos de texto plano (CSV o TXT). Susana queda encargada de los datasets del DANE, los demás de datasets de otras fuentes, Diego J queda encargado de generar formato de catalogo de datos, Catalina queda encargada de indagar sobre asesoria con docentes. 07-05: Reunión para mirar los datasets que se han ido consiguiendo, nos damos cuenta que la división no está por comunas, lo que nos hace repensar la situación, se propone revisar bien cómo se conforman esos datos. </t>
+  </si>
+  <si>
+    <t>Contactar al DANE</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -332,11 +341,6 @@
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -355,70 +359,79 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -740,178 +753,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6B1E7B-CEDC-4B27-9AC4-1949200C2F40}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="1"/>
-    <col min="3" max="3" width="11.5546875" style="2"/>
-    <col min="4" max="6" width="11.5546875" style="1"/>
-    <col min="7" max="7" width="80.5546875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="4.44140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="13"/>
+    <col min="3" max="3" width="11.5546875" style="14"/>
+    <col min="4" max="6" width="11.5546875" style="13"/>
+    <col min="7" max="7" width="80.5546875" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="11.5546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="15">
         <v>43937</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="15">
         <v>43941</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="15">
         <v>43941</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="15">
         <v>43955</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="15">
         <v>43955</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="15">
         <v>43955</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="15">
         <v>43955</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="15">
         <v>43956</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="15">
         <v>43956</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="15">
         <v>43956</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:7" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="15">
         <v>43956</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>25</v>
+      <c r="G7" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -925,549 +943,615 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="25" customWidth="1"/>
-    <col min="2" max="3" width="11.5546875" style="6"/>
-    <col min="4" max="4" width="17.109375" style="25" customWidth="1"/>
-    <col min="5" max="6" width="11.5546875" style="6"/>
-    <col min="7" max="7" width="17.5546875" style="25" customWidth="1"/>
-    <col min="8" max="9" width="11.5546875" style="6"/>
-    <col min="10" max="10" width="17.88671875" style="25" customWidth="1"/>
-    <col min="11" max="12" width="11.5546875" style="6"/>
-    <col min="13" max="13" width="17.77734375" style="25" customWidth="1"/>
-    <col min="14" max="16384" width="11.5546875" style="6"/>
+    <col min="1" max="1" width="16.109375" style="7" customWidth="1"/>
+    <col min="2" max="3" width="11.5546875" style="3"/>
+    <col min="4" max="4" width="17.109375" style="7" customWidth="1"/>
+    <col min="5" max="6" width="11.5546875" style="3"/>
+    <col min="7" max="7" width="17.5546875" style="7" customWidth="1"/>
+    <col min="8" max="9" width="11.5546875" style="3"/>
+    <col min="10" max="10" width="17.88671875" style="7" customWidth="1"/>
+    <col min="11" max="12" width="11.5546875" style="3"/>
+    <col min="13" max="13" width="17.77734375" style="7" customWidth="1"/>
+    <col min="14" max="16384" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:15" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+    </row>
+    <row r="2" spans="1:15" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-    </row>
-    <row r="2" spans="1:15" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22" t="s">
+      <c r="K2" s="27"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="24" t="s">
+      <c r="N2" s="30"/>
+      <c r="O2" s="31"/>
+    </row>
+    <row r="3" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="16"/>
-    </row>
-    <row r="3" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="26" t="s">
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="26" t="s">
+      <c r="B4" s="11">
+        <v>43937</v>
+      </c>
+      <c r="C4" s="11">
+        <v>43941</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="26" t="s">
+      <c r="E4" s="11">
+        <v>43937</v>
+      </c>
+      <c r="F4" s="11">
+        <v>43941</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="26" t="s">
+      <c r="H4" s="11">
+        <v>43937</v>
+      </c>
+      <c r="I4" s="11">
+        <v>43941</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="26" t="s">
+      <c r="K4" s="11">
+        <v>43937</v>
+      </c>
+      <c r="L4" s="11">
+        <v>43941</v>
+      </c>
+      <c r="M4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="N4" s="11">
+        <v>43937</v>
+      </c>
+      <c r="O4" s="11">
+        <v>43941</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="12">
+        <v>43955</v>
+      </c>
+      <c r="C5" s="12">
+        <v>43956</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="30">
-        <v>43937</v>
-      </c>
-      <c r="C4" s="30">
-        <v>43941</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="30">
-        <v>43937</v>
-      </c>
-      <c r="F4" s="30">
-        <v>43941</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="30">
-        <v>43937</v>
-      </c>
-      <c r="I4" s="30">
-        <v>43941</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="30">
-        <v>43937</v>
-      </c>
-      <c r="L4" s="30">
-        <v>43941</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="30">
-        <v>43937</v>
-      </c>
-      <c r="O4" s="30">
-        <v>43941</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="E5" s="12">
+        <v>43955</v>
+      </c>
+      <c r="F5" s="12">
+        <v>43956</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="12">
+        <v>43955</v>
+      </c>
+      <c r="I5" s="12">
+        <v>43956</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="12">
+        <v>43955</v>
+      </c>
+      <c r="L5" s="12">
+        <v>43956</v>
+      </c>
+      <c r="M5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="31">
+      <c r="N5" s="12">
         <v>43955</v>
       </c>
-      <c r="C5" s="31">
+      <c r="O5" s="12">
         <v>43956</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="31">
-        <v>43955</v>
-      </c>
-      <c r="F5" s="31">
+    </row>
+    <row r="6" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="12">
         <v>43956</v>
       </c>
-      <c r="G5" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="31">
-        <v>43955</v>
-      </c>
-      <c r="I5" s="31">
+      <c r="C6" s="12">
+        <v>43958</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="12">
         <v>43956</v>
       </c>
-      <c r="J5" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="31">
-        <v>43955</v>
-      </c>
-      <c r="L5" s="31">
+      <c r="F6" s="12">
+        <v>43958</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="12">
         <v>43956</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="I6" s="12">
+        <v>43958</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="31">
-        <v>43955</v>
-      </c>
-      <c r="O5" s="31">
+      <c r="K6" s="12">
         <v>43956</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="L6" s="12">
+        <v>43958</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="12">
+        <v>43956</v>
+      </c>
+      <c r="O6" s="12">
+        <v>43958</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B7" s="12">
         <v>43956</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C7" s="12">
         <v>43958</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="31">
+      <c r="D7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="12">
         <v>43956</v>
       </c>
-      <c r="F6" s="31">
+      <c r="I7" s="12">
+        <v>43957</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="12">
         <v>43958</v>
       </c>
-      <c r="G6" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="31">
-        <v>43956</v>
-      </c>
-      <c r="I6" s="31">
+      <c r="C8" s="12"/>
+      <c r="D8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="12">
         <v>43958</v>
       </c>
-      <c r="J6" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="31">
-        <v>43956</v>
-      </c>
-      <c r="L6" s="31">
+      <c r="F8" s="12"/>
+      <c r="G8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="12">
         <v>43958</v>
       </c>
-      <c r="M6" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="31">
-        <v>43956</v>
-      </c>
-      <c r="O6" s="31">
+      <c r="I8" s="12"/>
+      <c r="J8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="12">
         <v>43958</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="31">
-        <v>43956</v>
-      </c>
-      <c r="C7" s="31">
+      <c r="L8" s="12"/>
+      <c r="M8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="12">
         <v>43958</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="31">
-        <v>43956</v>
-      </c>
-      <c r="I7" s="31">
-        <v>43957</v>
-      </c>
-      <c r="J7" s="28"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="O8" s="12"/>
+    </row>
+    <row r="9" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="12">
+        <v>43958</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
